--- a/biology/Botanique/Annona_senegalensis/Annona_senegalensis.xlsx
+++ b/biology/Botanique/Annona_senegalensis/Annona_senegalensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Annone, Pomme-cannelle du Sénégal
-Le pommier cannelle du Sénégal (Annona senegalensis), est un arbuste de la famille des Annonaceae, du genre Annona, poussant dans les régions semi-arides et les zones subhumides. Son fruit, très prisé en Afrique pour ses qualités gustatives et pharmaceutiques[6], est  appelé annone ou pomme cannelle du Sénégal[7]. 
+Le pommier cannelle du Sénégal (Annona senegalensis), est un arbuste de la famille des Annonaceae, du genre Annona, poussant dans les régions semi-arides et les zones subhumides. Son fruit, très prisé en Afrique pour ses qualités gustatives et pharmaceutiques, est  appelé annone ou pomme cannelle du Sénégal. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbre ou arbuste poussant principalement dans les savanes et les forêts riveraines d'Afrique tropicale et australe. Il mesure jusqu'à 6 m de hauteur, possède d'assez grandes feuilles de couleur bleu verdâtre et produit des fruits comestibles, jaunes ou orange, de la grosseur d'une pomme. Ces fruits, riches en vitamines, sont sucrés et rappellent le goût de l'ananas et de la vanille[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre ou arbuste poussant principalement dans les savanes et les forêts riveraines d'Afrique tropicale et australe. Il mesure jusqu'à 6 m de hauteur, possède d'assez grandes feuilles de couleur bleu verdâtre et produit des fruits comestibles, jaunes ou orange, de la grosseur d'une pomme. Ces fruits, riches en vitamines, sont sucrés et rappellent le goût de l'ananas et de la vanille.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (11 août 2017)[9] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (11 août 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Annona senegalensis subsp. oulotricha Le Thomas
 sous-espèce Annona senegalensis subsp. senegalensis
 variété Annona senegalensis var. arenaria Sillans
